--- a/Lab1/src/CS-3353 Lab1 Data and Tables.xlsx
+++ b/Lab1/src/CS-3353 Lab1 Data and Tables.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanKennedy/Desktop/CS-3353-Algorithms/Lab1/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DEB751F-9888-DF44-A825-390FA34556ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2843F8D-30B3-1C43-9BE3-91E8EBCDCC3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="460" windowWidth="24340" windowHeight="21140" xr2:uid="{0357CAA6-6914-3942-8612-DE40FCB907CB}"/>
+    <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="17540" xr2:uid="{0357CAA6-6914-3942-8612-DE40FCB907CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>100k Fully Random</t>
   </si>
@@ -59,6 +59,15 @@
   <si>
     <t>Bubbble</t>
   </si>
+  <si>
+    <t>bubble vs. merge</t>
+  </si>
+  <si>
+    <t>bubble vs insertion</t>
+  </si>
+  <si>
+    <t>merge vs insertion</t>
+  </si>
 </sst>
 </file>
 
@@ -67,7 +76,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,10 +133,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -130,9 +147,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -202,7 +221,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Insertion</c:v>
+            <c:strRef>
+              <c:f>Data!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100k Fully Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -216,174 +243,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$24:$B$27</c:f>
+              <c:f>Data!$C$23:$E$23</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100k Fully Random</c:v>
+                  <c:v>Insertion</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100k Reverse Sort Order</c:v>
+                  <c:v>Bubbble</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100k Partial Unique</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100k Partial Randomized</c:v>
+                  <c:v>Merge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$24:$C$27</c:f>
+              <c:f>Data!$C$24:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>7.8691508601333338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.092422373000002</c:v>
+                  <c:v>42.469378300399995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8614306492666675</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.790223829066667</c:v>
+                  <c:v>2.0161646933333333E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8D15-B149-BF76-54AD9A6CDF5E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Bubble</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$B$24:$B$27</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100k Fully Random</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100k Reverse Sort Order</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100k Partial Unique</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100k Partial Randomized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$D$24:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>42.469378300399995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.818809687200005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.386520269199991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.470213680600001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8D15-B149-BF76-54AD9A6CDF5E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Merge</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$B$24:$B$27</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100k Fully Random</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100k Reverse Sort Order</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100k Partial Unique</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100k Partial Randomized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$E$24:$E$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0161646933333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1267358333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9224226266666665E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3494862133333332E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8D15-B149-BF76-54AD9A6CDF5E}"/>
+              <c16:uniqueId val="{00000000-BBC3-424F-8C15-1020B0AE3685}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -397,16 +292,71 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="101498592"/>
-        <c:axId val="104902592"/>
+        <c:axId val="154560863"/>
+        <c:axId val="151357663"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101498592"/>
+        <c:axId val="154560863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -444,7 +394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104902592"/>
+        <c:crossAx val="151357663"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -452,9 +402,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104902592"/>
+        <c:axId val="151357663"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -473,6 +422,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -504,7 +508,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101498592"/>
+        <c:crossAx val="154560863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -516,8 +520,65 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -531,7 +592,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -546,7 +607,2746 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100k Reverse Sort Order</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$23:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bubbble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14.092422373000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.818809687200005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1267358333333333E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAE1-3949-B8B3-735A0EFFCB4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="151447631"/>
+        <c:axId val="154503023"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="151447631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154503023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154503023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151447631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100k Partial Unique</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$23:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bubbble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.8614306492666675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.386520269199991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9224226266666665E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C411-5246-AC17-9AC1E1515E5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="117125567"/>
+        <c:axId val="75366767"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="117125567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75366767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75366767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117125567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100k Partial Randomized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$23:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bubbble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.790223829066667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.470213680600001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3494862133333332E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5CA-454B-A951-87D481F06E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="117188911"/>
+        <c:axId val="152713567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="117188911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152713567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152713567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117188911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100k Partial Randomized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$23:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bubbble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.790223829066667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.470213680600001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3494862133333332E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF96-B74C-9EF9-559B33EAA74F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="117188911"/>
+        <c:axId val="152713567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="117188911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152713567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152713567"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117188911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100k Fully Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$23:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bubbble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.8691508601333338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.469378300399995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0161646933333333E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD4C-DA41-BC21-7C4DCAF2604F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="154560863"/>
+        <c:axId val="151357663"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="154560863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151357663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151357663"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154560863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100k Reverse Sort Order</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$23:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bubbble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14.092422373000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.818809687200005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1267358333333333E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35F3-D347-ADD8-7A0922CCE2C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="151447631"/>
+        <c:axId val="154503023"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="151447631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154503023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154503023"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151447631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100k Partial Unique</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$23:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bubbble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.8614306492666675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.386520269199991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9224226266666665E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-236C-8246-984F-15631F46C200}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="117125567"/>
+        <c:axId val="75366767"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="117125567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75366767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75366767"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117125567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -631,7 +3431,3808 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1139,22 +7740,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>958850</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70255F44-8D1A-2049-AC9E-FBFCCBB4E7BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B648D6-174D-7841-8701-21D01B231597}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,6 +7768,266 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35CFB05-7F20-E44B-8F8B-CE2D1AF96647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD93DDB-E6E7-6A45-8F86-4155A5A5EBB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9200D21-2E6E-A940-9250-B82BBB80C99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437C7B7F-71CE-124A-8501-9CB825B79F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F71E85-E224-8F48-A875-BC9574304F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF77FC55-F959-8246-95DF-42AF10D8D4BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A0DC72-B134-8E44-A801-F653121684B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1472,11 +8333,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C327A6D-E4B9-EA4B-9959-E9FD6107161D}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2292,6 +9151,52 @@
         <v>1.3494862133333332E-2</v>
       </c>
     </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="9">
+        <f>(C19-B19)/B19</f>
+        <v>0.79084409785495224</v>
+      </c>
+      <c r="E20" s="9">
+        <f>(B19-E19)/E19</f>
+        <v>0.14686736081408458</v>
+      </c>
+      <c r="F20" s="9">
+        <f>(E19-F19)/F19</f>
+        <v>1.4590968573162189</v>
+      </c>
+      <c r="H20" s="9">
+        <f>(H19-K19)/K19</f>
+        <v>0.13595429568200273</v>
+      </c>
+      <c r="I20" s="9">
+        <f>(I19-L19)/L19</f>
+        <v>5.0947681151073961E-2</v>
+      </c>
+      <c r="K20" s="9">
+        <f>(K19-I19)/I19</f>
+        <v>0.34392954585696317</v>
+      </c>
+      <c r="L20" s="9">
+        <f>(I19-L19)/L19</f>
+        <v>5.0947681151073961E-2</v>
+      </c>
+      <c r="N20" s="9">
+        <f>(N19-Q19)/Q19</f>
+        <v>4.8762465321794679E-2</v>
+      </c>
+      <c r="O20" s="9">
+        <f>(R19-O19)/O19</f>
+        <v>0.19769530124999715</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>(N19-Q19)/Q19</f>
+        <v>4.8762465321794679E-2</v>
+      </c>
+      <c r="R20" s="9">
+        <f>(R19-O19)/O19</f>
+        <v>0.19769530124999715</v>
+      </c>
+    </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -2301,6 +9206,15 @@
       </c>
       <c r="E23" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -2319,6 +9233,18 @@
         <f>N19</f>
         <v>2.0161646933333333E-2</v>
       </c>
+      <c r="F24" s="9">
+        <f>(D24-E24)/E24</f>
+        <v>2105.443905144733</v>
+      </c>
+      <c r="H24" s="9">
+        <f>(D24-C24)/C24</f>
+        <v>4.3969454970749418</v>
+      </c>
+      <c r="I24" s="9">
+        <f>(C24-E24)/E24</f>
+        <v>389.30297902515269</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
@@ -2336,6 +9262,18 @@
         <f>O19</f>
         <v>1.1267358333333333E-2</v>
       </c>
+      <c r="F25" s="9">
+        <f t="shared" ref="F25:F27" si="0">(D25-E25)/E25</f>
+        <v>2467.9735485646966</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" ref="H25:H27" si="1">(D25-C25)/C25</f>
+        <v>0.97402610785344523</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" ref="I25:I27" si="2">(C25-E25)/E25</f>
+        <v>1249.7299365201695</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
@@ -2353,6 +9291,18 @@
         <f>Q19</f>
         <v>1.9224226266666665E-2</v>
       </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>1943.7607279792244</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="1"/>
+        <v>4.4487937254303915</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="2"/>
+        <v>355.91582870952067</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
@@ -2370,6 +9320,35 @@
         <f>R19</f>
         <v>1.3494862133333332E-2</v>
       </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>1960.5030831042404</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="1"/>
+        <v>8.4867707045044902</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="2"/>
+        <v>205.76193661694421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F28" s="9">
+        <f>AVERAGE(F24:F27)/100</f>
+        <v>21.194203161982237</v>
+      </c>
+      <c r="H28" s="9">
+        <f>AVERAGE(H24:H27)/100</f>
+        <v>4.5766340087158179E-2</v>
+      </c>
+      <c r="I28" s="9">
+        <f>AVERAGE(I24:I27)/100</f>
+        <v>5.5017767021794679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
